--- a/dependencies/mycobacterium/tbc/h37/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/mycobacterium/tbc/h37/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\mycobacterium\tbc\h37\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/mycobacterium/tbc/h37/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979766B-0305-C74C-90FD-5A40168C285B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="10200" windowWidth="19440" windowHeight="16695" tabRatio="500"/>
+    <workbookView xWindow="1660" yWindow="10200" windowWidth="19440" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,106 +87,106 @@
     <t>H37Rv-orygis</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-3670118</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-313425</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-794482</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-549875</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-2775361</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-1481563</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-301535</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-4306896</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-3568199</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-1583036</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-654543</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-2910150</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-3010420!</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-1288630</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-203639</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-3392544</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-2850607</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-4207844</t>
-  </si>
-  <si>
-    <t>gi|448814763|ref|NC_000962.3|-1390793</t>
-  </si>
-  <si>
     <t>H37Rv-02A</t>
   </si>
   <si>
     <t>H37Rv-04A</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-1480024</t>
-  </si>
-  <si>
     <t>H37Rv-04B</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-1332228</t>
-  </si>
-  <si>
     <t>H37Rv-04C</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-3419560</t>
-  </si>
-  <si>
     <t>H37Rv-04D</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-2809250</t>
-  </si>
-  <si>
     <t>H37Rv-04E</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-2971476</t>
-  </si>
-  <si>
     <t>H37Rv-04F</t>
   </si>
   <si>
-    <t>gi|448814763|ref|NC_000962.3|-103181</t>
+    <t>NC_000962.3-3670118</t>
+  </si>
+  <si>
+    <t>NC_000962.3-313425</t>
+  </si>
+  <si>
+    <t>NC_000962.3-794482</t>
+  </si>
+  <si>
+    <t>NC_000962.3-549875</t>
+  </si>
+  <si>
+    <t>NC_000962.3-2775361</t>
+  </si>
+  <si>
+    <t>NC_000962.3-1390793</t>
+  </si>
+  <si>
+    <t>NC_000962.3-1481563</t>
+  </si>
+  <si>
+    <t>NC_000962.3-301535</t>
+  </si>
+  <si>
+    <t>NC_000962.3-4306896</t>
+  </si>
+  <si>
+    <t>NC_000962.3-3568199</t>
+  </si>
+  <si>
+    <t>NC_000962.3-1583036</t>
+  </si>
+  <si>
+    <t>NC_000962.3-654543</t>
+  </si>
+  <si>
+    <t>NC_000962.3-2910150</t>
+  </si>
+  <si>
+    <t>NC_000962.3-3010420!</t>
+  </si>
+  <si>
+    <t>NC_000962.3-1480024</t>
+  </si>
+  <si>
+    <t>NC_000962.3-1332228</t>
+  </si>
+  <si>
+    <t>NC_000962.3-3419560</t>
+  </si>
+  <si>
+    <t>NC_000962.3-2809250</t>
+  </si>
+  <si>
+    <t>NC_000962.3-2971476</t>
+  </si>
+  <si>
+    <t>NC_000962.3-1288630</t>
+  </si>
+  <si>
+    <t>NC_000962.3-203639</t>
+  </si>
+  <si>
+    <t>NC_000962.3-3392544</t>
+  </si>
+  <si>
+    <t>NC_000962.3-2850607</t>
+  </si>
+  <si>
+    <t>NC_000962.3-4207844</t>
+  </si>
+  <si>
+    <t>NC_000962.3-103181</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -510,20 +511,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,611 +532,611 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
